--- a/REGULAR/OJT/MARTINEZ, EMER.xlsx
+++ b/REGULAR/OJT/MARTINEZ, EMER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A9D62-616E-402E-9266-AA067CD0BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FF5CB-E3EC-496A-8841-B83E8B588CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
   <si>
     <t>PERIOD</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>12/23,26-29</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -2904,6 +2907,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K391" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K391" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3006,7 +3010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3058,7 +3062,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3283,9 +3287,10 @@
   </sheetPr>
   <dimension ref="A2:K391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A373" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E376" sqref="E376"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3888" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="K8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3442,7 +3447,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>237.4</v>
+        <v>239.08800000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3452,7 +3457,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>290.5</v>
+        <v>293</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5931,7 +5936,9 @@
       <c r="C124" s="13">
         <v>1.25</v>
       </c>
-      <c r="D124" s="39"/>
+      <c r="D124" s="39">
+        <v>0.81200000000000006</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13">
@@ -11412,13 +11419,15 @@
         <v>44958</v>
       </c>
       <c r="B385" s="20"/>
-      <c r="C385" s="13"/>
+      <c r="C385" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D385" s="39"/>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
@@ -11430,13 +11439,15 @@
         <v>44986</v>
       </c>
       <c r="B386" s="20"/>
-      <c r="C386" s="13"/>
+      <c r="C386" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D386" s="39"/>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G386" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H386" s="39"/>
       <c r="I386" s="9"/>
@@ -11578,7 +11589,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -11645,14 +11656,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.1000000000000014E-2</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -11675,6 +11686,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11696,6 +11710,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>532.08799999999997</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/MARTINEZ, EMER.xlsx
+++ b/REGULAR/OJT/MARTINEZ, EMER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FF5CB-E3EC-496A-8841-B83E8B588CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4B283-BBBD-459A-B0EB-7C293BCDCC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="162">
   <si>
     <t>PERIOD</t>
   </si>
@@ -506,6 +506,21 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>TERMINAL SUPERVISOR</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/22-26/2023</t>
   </si>
 </sst>
 </file>
@@ -3287,10 +3302,10 @@
   </sheetPr>
   <dimension ref="A2:K391"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3888" topLeftCell="A380" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="K389" sqref="K389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3333,7 +3348,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>159</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3351,12 +3368,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>157</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>158</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3447,7 +3468,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>239.08800000000002</v>
+        <v>241.58800000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3457,7 +3478,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>293</v>
+        <v>290.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11459,13 +11480,15 @@
         <v>45017</v>
       </c>
       <c r="B387" s="20"/>
-      <c r="C387" s="13"/>
+      <c r="C387" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D387" s="39"/>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G387" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H387" s="39"/>
       <c r="I387" s="9"/>
@@ -11476,19 +11499,27 @@
       <c r="A388" s="40">
         <v>45047</v>
       </c>
-      <c r="B388" s="20"/>
-      <c r="C388" s="13"/>
+      <c r="B388" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D388" s="39"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H388" s="39"/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H388" s="39">
+        <v>5</v>
+      </c>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
+      <c r="K388" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
@@ -11558,7 +11589,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -11589,7 +11620,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
